--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_5_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_5_square_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.32000000000036</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001029304201748515</v>
+        <v>7.254619304841725e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001029304201748515</v>
+        <v>7.254619304841725e-06</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>44.87171281684456</v>
+        <v>62.48732254290727</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[15.004910911377891, 74.73851472231124]</t>
+          <t>[36.01063153784034, 88.9640135479742]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.004088532476533402</v>
+        <v>2.080584869568192e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004088532476533402</v>
+        <v>2.080584869568192e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.01260543989581</v>
+        <v>1.654131867655886</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.32076321388003937, 1.704447665911581]</t>
+          <t>[1.1383949355350387, 2.169868799776734]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.005056633785909037</v>
+        <v>6.468368662915225e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>0.005056633785909037</v>
+        <v>6.468368662915225e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>65.66354142345567</v>
+        <v>81.1400125460621</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.707096457792794, 81.61998638911854]</t>
+          <t>[65.07057309192803, 97.20945200019617]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.316324826916571e-10</v>
+        <v>3.059774655866931e-13</v>
       </c>
       <c r="W2" t="n">
-        <v>1.316324826916571e-10</v>
+        <v>3.059774655866931e-13</v>
       </c>
       <c r="X2" t="n">
-        <v>20.40056056056086</v>
+        <v>17.96164164164192</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.72268268268294</v>
+        <v>15.96048048048072</v>
       </c>
       <c r="Z2" t="n">
-        <v>23.07843843843878</v>
+        <v>19.96280280280311</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.32000000000036</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002539120594004962</v>
+        <v>0.05031659429675106</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002539120594004962</v>
+        <v>0.05031659429675106</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>47.64049006276136</v>
+        <v>28.59408185510627</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[14.74426878415234, 80.53671134137038]</t>
+          <t>[-1.5246685964268565, 58.71283230663939]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.005498626763461134</v>
+        <v>0.06223643482290409</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005498626763461134</v>
+        <v>0.06223643482290409</v>
       </c>
       <c r="P3" t="n">
-        <v>1.943447707626119</v>
+        <v>1.817658211986886</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.1887107337907326, 2.6981846814615045]</t>
+          <t>[0.3836579616996545, 3.2516584622741185]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4.934771264508697e-06</v>
+        <v>0.01414240296605551</v>
       </c>
       <c r="S3" t="n">
-        <v>4.934771264508697e-06</v>
+        <v>0.01414240296605551</v>
       </c>
       <c r="T3" t="n">
-        <v>73.66357560185948</v>
+        <v>60.02228215241456</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[55.241399129214315, 92.08575207450464]</t>
+          <t>[43.81433231625237, 76.23023198857675]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.880082838885301e-10</v>
+        <v>2.138252686023634e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>2.880082838885301e-10</v>
+        <v>2.138252686023634e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>16.79759759759785</v>
+        <v>17.32712712712739</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.87627627627648</v>
+        <v>11.76292292292311</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.71891891891921</v>
+        <v>22.89133133133168</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.32000000000036</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002919195936443297</v>
+        <v>0.08414785568095096</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002919195936443297</v>
+        <v>0.08414785568095096</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>32.27083441832028</v>
+        <v>29.26253160477975</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[10.243243467338154, 54.2984253693024]</t>
+          <t>[-3.895574737082775, 62.42063794664228]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.005018700238809126</v>
+        <v>0.08224850435241726</v>
       </c>
       <c r="O4" t="n">
-        <v>0.005018700238809126</v>
+        <v>0.08224850435241726</v>
       </c>
       <c r="P4" t="n">
-        <v>1.289342330302118</v>
+        <v>1.150973885098963</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.4465527095192705, 2.132131951084965]</t>
+          <t>[-0.6981317007977337, 3.000079470995659]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.003511031502070106</v>
+        <v>0.216433801759232</v>
       </c>
       <c r="S4" t="n">
-        <v>0.003511031502070106</v>
+        <v>0.216433801759232</v>
       </c>
       <c r="T4" t="n">
-        <v>49.49699620145049</v>
+        <v>79.1714577717544</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[36.853091465281, 62.140900937619975]</t>
+          <t>[60.87955450474203, 97.46336103876678]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.077325226920948e-10</v>
+        <v>3.188893593630837e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>5.077325226920948e-10</v>
+        <v>3.188893593630837e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>19.3294094094097</v>
+        <v>19.9139939939943</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.06726726726751</v>
+        <v>12.73909909909929</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.59155155155188</v>
+        <v>27.08888888888931</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.32000000000036</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.744037898565587e-05</v>
+        <v>0.01549585911680429</v>
       </c>
       <c r="I5" t="n">
-        <v>1.744037898565587e-05</v>
+        <v>0.01549585911680429</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>53.36429854330758</v>
+        <v>34.97073242771287</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[29.769703424449375, 76.95889366216578]</t>
+          <t>[3.5146739491241874, 66.42679090630156]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.977637351759711e-05</v>
+        <v>0.03013529584651664</v>
       </c>
       <c r="O5" t="n">
-        <v>3.977637351759711e-05</v>
+        <v>0.03013529584651664</v>
       </c>
       <c r="P5" t="n">
-        <v>1.616395018964118</v>
+        <v>0.6855527512338089</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.0755001877154244, 2.1572898502128117]</t>
+          <t>[-0.13836844520315417, 1.509473947670772]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.927127926710682e-07</v>
+        <v>0.1007018788451084</v>
       </c>
       <c r="S5" t="n">
-        <v>2.927127926710682e-07</v>
+        <v>0.1007018788451084</v>
       </c>
       <c r="T5" t="n">
-        <v>60.96142793821303</v>
+        <v>70.52818163241425</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[46.56346668666067, 75.35938918976538]</t>
+          <t>[54.13937875123393, 86.91698451359457]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.954836623800475e-11</v>
+        <v>3.757150146554977e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>5.954836623800475e-11</v>
+        <v>3.757150146554977e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>18.06350350350377</v>
+        <v>21.71991991992025</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.96988988989012</v>
+        <v>18.52294294294322</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.15711711711742</v>
+        <v>24.91689689689728</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.32000000000036</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001161202066614409</v>
+        <v>0.01571506084413621</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001161202066614409</v>
+        <v>0.01571506084413621</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>46.27674206090337</v>
+        <v>35.70484197053132</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[14.185947263316052, 78.36753685849068]</t>
+          <t>[5.948188565067852, 65.46149537599479]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.00568459356650175</v>
+        <v>0.01977863585759776</v>
       </c>
       <c r="O6" t="n">
-        <v>0.00568459356650175</v>
+        <v>0.01977863585759776</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9245527929483472</v>
+        <v>1.327079178993887</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.25786846606042424, 1.5912371198362703]</t>
+          <t>[0.15723686954903915, 2.4969214884387343]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.007639168596959234</v>
+        <v>0.02709002042181075</v>
       </c>
       <c r="S6" t="n">
-        <v>0.007639168596959234</v>
+        <v>0.02709002042181075</v>
       </c>
       <c r="T6" t="n">
-        <v>78.67284585000419</v>
+        <v>59.92761222028641</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[62.08762726313798, 95.2580644368704]</t>
+          <t>[43.00233849374986, 76.85288594682295]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.128741627416275e-12</v>
+        <v>6.509114802710769e-09</v>
       </c>
       <c r="W6" t="n">
-        <v>2.128741627416275e-12</v>
+        <v>6.509114802710769e-09</v>
       </c>
       <c r="X6" t="n">
-        <v>20.74138138138169</v>
+        <v>19.23067067067096</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.16088088088116</v>
+        <v>14.69145145145168</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.32188188188223</v>
+        <v>23.76988988989025</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.32000000000036</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0004416616069279344</v>
+        <v>0.02291512544609031</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0004416616069279344</v>
+        <v>0.02291512544609031</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>52.41844188504574</v>
+        <v>34.67251519983571</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[19.967949582944158, 84.86893418714733]</t>
+          <t>[2.761987833188158, 66.58304256648327]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.002166209596458746</v>
+        <v>0.03386955803572866</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002166209596458746</v>
+        <v>0.03386955803572866</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9874475407679633</v>
+        <v>1.226447582482502</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.35850006257180933, 1.6163950189641172]</t>
+          <t>[-0.05660527303765406, 2.5095004380026573]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.00280310467527678</v>
+        <v>0.06053288942992796</v>
       </c>
       <c r="S7" t="n">
-        <v>0.00280310467527678</v>
+        <v>0.06053288942992796</v>
       </c>
       <c r="T7" t="n">
-        <v>68.44746974818513</v>
+        <v>74.86916815124047</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[51.055674635987714, 85.83926486038254]</t>
+          <t>[57.566973822769214, 92.17136247971173]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.407132436767824e-10</v>
+        <v>3.211653165635653e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>4.407132436767824e-10</v>
+        <v>3.211653165635653e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>20.49793793793824</v>
+        <v>19.62114114114144</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.06350350350377</v>
+        <v>14.64264264264287</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.93237237237271</v>
+        <v>24.59963963964002</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.32000000000036</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.000953733110155e-05</v>
+        <v>0.0003982490472733691</v>
       </c>
       <c r="I8" t="n">
-        <v>1.000953733110155e-05</v>
+        <v>0.0003982490472733691</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>62.35310310443579</v>
+        <v>45.00585557383052</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[33.6873777145221, 91.01882849434948]</t>
+          <t>[16.320177242010274, 73.69153390565076]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>6.986906321304609e-05</v>
+        <v>0.002820065462665555</v>
       </c>
       <c r="O8" t="n">
-        <v>6.986906321304609e-05</v>
+        <v>0.002820065462665555</v>
       </c>
       <c r="P8" t="n">
-        <v>1.301921279866041</v>
+        <v>1.025184389459732</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.798763297309117, 1.8050792624229643]</t>
+          <t>[0.3836579616996545, 1.6667108172198102]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>4.534903491837383e-06</v>
+        <v>0.002391073876872651</v>
       </c>
       <c r="S8" t="n">
-        <v>4.534903491837383e-06</v>
+        <v>0.002391073876872651</v>
       </c>
       <c r="T8" t="n">
-        <v>62.96807985340806</v>
+        <v>69.62117497891998</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[46.69335234849586, 79.24280735832025]</t>
+          <t>[54.784558948615484, 84.45779100922448]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>6.916374140075732e-10</v>
+        <v>2.955635736157092e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>6.916374140075732e-10</v>
+        <v>2.955635736157092e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28072072072101</v>
+        <v>20.40208208208239</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.33317317317343</v>
+        <v>17.91283283283311</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.22826826826858</v>
+        <v>22.89133133133168</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.32000000000036</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>8.849347147033004e-05</v>
+        <v>0.0009933875576764173</v>
       </c>
       <c r="I9" t="n">
-        <v>8.849347147033004e-05</v>
+        <v>0.0009933875576764173</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>56.12225046645742</v>
+        <v>37.2654842156353</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[23.93666206157546, 88.30783887133938]</t>
+          <t>[13.149246059640461, 61.38172237163013]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.001024604860990319</v>
+        <v>0.003221736538184583</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001024604860990319</v>
+        <v>0.003221736538184583</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9622896416401172</v>
+        <v>1.188710733790733</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.3962369112635775, 1.528342372016657]</t>
+          <t>[0.4968685077749626, 1.8805529598065025]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.001326070636130439</v>
+        <v>0.001191599870456805</v>
       </c>
       <c r="S9" t="n">
-        <v>0.001326070636130439</v>
+        <v>0.001191599870456805</v>
       </c>
       <c r="T9" t="n">
-        <v>69.61514521130576</v>
+        <v>48.46507639952312</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[52.9815639551542, 86.24872646745732]</t>
+          <t>[35.21570591391441, 61.71444688513183]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>8.242495574961595e-11</v>
+        <v>2.915240271406105e-09</v>
       </c>
       <c r="W9" t="n">
-        <v>8.242495574961595e-11</v>
+        <v>2.915240271406105e-09</v>
       </c>
       <c r="X9" t="n">
-        <v>20.59531531531562</v>
+        <v>19.76756756756787</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.40432432432459</v>
+        <v>17.08308308308334</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.78630630630665</v>
+        <v>22.45205205205239</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.32000000000036</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001884724876601851</v>
+        <v>2.470621480465951e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001884724876601851</v>
+        <v>2.470621480465951e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>49.08127238125866</v>
+        <v>59.42408679915083</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[14.165600531477509, 83.9969442310398]</t>
+          <t>[27.75886656312872, 91.08930703517294]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.006909028004099538</v>
+        <v>0.0004594648103493082</v>
       </c>
       <c r="O10" t="n">
-        <v>0.006909028004099538</v>
+        <v>0.0004594648103493082</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6352369529781168</v>
+        <v>0.761026448617347</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.03144737390980712, 1.3019212798660407]</t>
+          <t>[0.2830263651882694, 1.2390265320464247]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.06132725113287063</v>
+        <v>0.002473180316380885</v>
       </c>
       <c r="S10" t="n">
-        <v>0.06132725113287063</v>
+        <v>0.002473180316380885</v>
       </c>
       <c r="T10" t="n">
-        <v>65.64981863114176</v>
+        <v>69.1046154404614</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[47.3462093772407, 83.95342788504281]</t>
+          <t>[52.89950202604841, 85.3097288548744]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>4.747445103703285e-09</v>
+        <v>4.867772851468999e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>4.747445103703285e-09</v>
+        <v>4.867772851468999e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>21.86122122122154</v>
+        <v>21.42706706706739</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28072072072101</v>
+        <v>19.57233233233263</v>
       </c>
       <c r="Z10" t="n">
-        <v>24.44172172172208</v>
+        <v>23.28180180180216</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.64000000000057</v>
+        <v>25.40000000000053</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01620586912935429</v>
+        <v>0.0005602004479130507</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01620586912935429</v>
+        <v>0.0005602004479130507</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>34.01729822609722</v>
+        <v>50.32152062967008</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[6.282803438746434, 61.751793013448015]</t>
+          <t>[17.487428582199342, 83.15561267714081]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0173529692461627</v>
+        <v>0.003457639622547637</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0173529692461627</v>
+        <v>0.003457639622547637</v>
       </c>
       <c r="P11" t="n">
-        <v>1.515763422452733</v>
+        <v>0.798763297309117</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.4339737599553466, 2.5975530849501194]</t>
+          <t>[0.22013161736865516, 1.3773949772495788]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.007078338226608638</v>
+        <v>0.007900191760308539</v>
       </c>
       <c r="S11" t="n">
-        <v>0.007078338226608638</v>
+        <v>0.007900191760308539</v>
       </c>
       <c r="T11" t="n">
-        <v>70.53385848686344</v>
+        <v>58.48806527405323</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[53.9425330240843, 87.12518394964258]</t>
+          <t>[41.679086527948954, 75.29704402015751]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>5.310951678438869e-11</v>
+        <v>9.907907161377238e-09</v>
       </c>
       <c r="W11" t="n">
-        <v>5.310951678438869e-11</v>
+        <v>9.907907161377238e-09</v>
       </c>
       <c r="X11" t="n">
-        <v>19.45457457457501</v>
+        <v>22.17097097097143</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.04008008008041</v>
+        <v>19.83183183183225</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.8690690690696</v>
+        <v>24.51011011011062</v>
       </c>
     </row>
     <row r="12">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.64000000000057</v>
+        <v>25.40000000000053</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0001437453544996803</v>
+        <v>0.001824923236732889</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001437453544996803</v>
+        <v>0.001824923236732889</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>58.12399248225645</v>
+        <v>53.19806663187404</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[24.332264479420886, 91.91572048509201]</t>
+          <t>[20.942898228439645, 85.45323503530844]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.001178435953511858</v>
+        <v>0.001781779422746155</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001178435953511858</v>
+        <v>0.001781779422746155</v>
       </c>
       <c r="P12" t="n">
-        <v>0.5849211547224247</v>
+        <v>0.1698158191129622</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.006289474781962845, 1.1635528346628865]</t>
+          <t>[-0.6100790538502698, 0.9497106920761942]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.0476628246642532</v>
+        <v>0.663082521949752</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0476628246642532</v>
+        <v>0.663082521949752</v>
       </c>
       <c r="T12" t="n">
-        <v>62.12071286437383</v>
+        <v>71.14593939143631</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[44.837814791496456, 79.4036109372512]</t>
+          <t>[51.88283456760693, 90.40904421526571]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>4.505442907642987e-09</v>
+        <v>2.287597222760951e-09</v>
       </c>
       <c r="W12" t="n">
-        <v>4.505442907642987e-09</v>
+        <v>2.287597222760951e-09</v>
       </c>
       <c r="X12" t="n">
-        <v>23.25309309309361</v>
+        <v>24.71351351351403</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.89185185185232</v>
+        <v>21.56076076076121</v>
       </c>
       <c r="Z12" t="n">
-        <v>25.6143343343349</v>
+        <v>27.86626626626685</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.64000000000057</v>
+        <v>25.40000000000053</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003795377519479781</v>
+        <v>2.096627631731351e-06</v>
       </c>
       <c r="I13" t="n">
-        <v>0.003795377519479781</v>
+        <v>2.096627631731351e-06</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>43.94513866709004</v>
+        <v>63.13497151216747</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[13.524034838694377, 74.36624249548571]</t>
+          <t>[38.081245712227044, 88.18869731210789]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.005608155882196764</v>
+        <v>7.151166895535965e-06</v>
       </c>
       <c r="O13" t="n">
-        <v>0.005608155882196764</v>
+        <v>7.151166895535965e-06</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.2012631930227693</v>
+        <v>0.2956053147521933</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.0440528138056173, 0.6415264277600787]</t>
+          <t>[-0.16981581911296129, 0.7610264486173479]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.6328612273012668</v>
+        <v>0.2073739217523789</v>
       </c>
       <c r="S13" t="n">
-        <v>0.6328612273012668</v>
+        <v>0.2073739217523789</v>
       </c>
       <c r="T13" t="n">
-        <v>72.09413628101035</v>
+        <v>64.11872562228882</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[54.84436643948493, 89.34390612253577]</t>
+          <t>[49.459623074511654, 78.77782817006599]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>8.56712478736199e-11</v>
+        <v>2.357514183870535e-11</v>
       </c>
       <c r="W13" t="n">
-        <v>8.56712478736199e-11</v>
+        <v>2.357514183870535e-11</v>
       </c>
       <c r="X13" t="n">
-        <v>0.8213013013013217</v>
+        <v>24.20500500500551</v>
       </c>
       <c r="Y13" t="n">
-        <v>-2.617897897897957</v>
+        <v>22.32352352352399</v>
       </c>
       <c r="Z13" t="n">
-        <v>4.2605005005006</v>
+        <v>26.08648648648703</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.64000000000057</v>
+        <v>25.40000000000053</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001684690624089713</v>
+        <v>0.008150523710598212</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001684690624089713</v>
+        <v>0.008150523710598212</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>47.05050257606791</v>
+        <v>37.45984201700403</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[20.09067769117422, 74.01032746096159]</t>
+          <t>[10.788911537016475, 64.13077249699158]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.00101551854504689</v>
+        <v>0.006952959087939803</v>
       </c>
       <c r="O14" t="n">
-        <v>0.00101551854504689</v>
+        <v>0.006952959087939803</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.02515789912784605</v>
+        <v>0.05660527303765406</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.779894872963232, 0.7295790747075399]</t>
+          <t>[-0.8931054190385392, 1.0063159651138474]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.9467702254035888</v>
+        <v>0.9049811655566951</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9467702254035888</v>
+        <v>0.9049811655566951</v>
       </c>
       <c r="T14" t="n">
-        <v>64.64650106990732</v>
+        <v>55.70450837327778</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[47.72133293166931, 81.57166920814532]</t>
+          <t>[39.85978858246037, 71.54922816409518]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9.681033752428903e-10</v>
+        <v>7.731923101772509e-09</v>
       </c>
       <c r="W14" t="n">
-        <v>9.681033752428903e-10</v>
+        <v>7.731923101772509e-09</v>
       </c>
       <c r="X14" t="n">
-        <v>0.102662662662663</v>
+        <v>25.1711711711717</v>
       </c>
       <c r="Y14" t="n">
-        <v>-2.977217217217286</v>
+        <v>21.33193193193238</v>
       </c>
       <c r="Z14" t="n">
-        <v>3.182542542542612</v>
+        <v>29.01041041041102</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>25.64000000000057</v>
+        <v>25.40000000000053</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0004669716219226627</v>
+        <v>5.954874530744725e-05</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0004669716219226627</v>
+        <v>5.954874530744725e-05</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>46.39032124083857</v>
+        <v>61.17966698853333</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[18.281226073674873, 74.49941640800228]</t>
+          <t>[31.483760148402922, 90.87557382866375]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.001770696445392295</v>
+        <v>0.0001460452009212077</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001770696445392295</v>
+        <v>0.0001460452009212077</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.3144737390980774</v>
+        <v>-0.2515789912784623</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.9811580659860013, 0.3522105877898465]</t>
+          <t>[-0.855368570346771, 0.3522105877898465]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.3471622834022545</v>
+        <v>0.4057878611303565</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3471622834022545</v>
+        <v>0.4057878611303565</v>
       </c>
       <c r="T15" t="n">
-        <v>81.88507523714125</v>
+        <v>68.61224533655879</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[66.62336565562745, 97.14678481865505]</t>
+          <t>[51.227260104161104, 85.99723056895647]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>4.329869796038111e-14</v>
+        <v>4.090787708577182e-10</v>
       </c>
       <c r="W15" t="n">
-        <v>4.329869796038111e-14</v>
+        <v>4.090787708577182e-10</v>
       </c>
       <c r="X15" t="n">
-        <v>1.283283283283311</v>
+        <v>1.017017017017043</v>
       </c>
       <c r="Y15" t="n">
-        <v>-1.43727727727731</v>
+        <v>-1.42382382382385</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.003843843843931</v>
+        <v>3.457857857857936</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>25.64000000000057</v>
+        <v>25.40000000000053</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>4.834088914162926e-06</v>
+        <v>0.00155736335829848</v>
       </c>
       <c r="I16" t="n">
-        <v>4.834088914162926e-06</v>
+        <v>0.00155736335829848</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>60.41869169463826</v>
+        <v>47.95053665784654</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[31.173481465947717, 89.6639019233288]</t>
+          <t>[13.802103329122332, 82.09896998657075]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.0001408231121393655</v>
+        <v>0.006965557145631962</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0001408231121393655</v>
+        <v>0.006965557145631962</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.8931054190385392</v>
+        <v>-1.006315965113847</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-1.358526552903693, -0.4276842851733855]</t>
+          <t>[-1.6981581911296173, -0.3144737390980774]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.0003541736593026812</v>
+        <v>0.005312837190214914</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0003541736593026812</v>
+        <v>0.005312837190214914</v>
       </c>
       <c r="T16" t="n">
-        <v>69.7917920780624</v>
+        <v>69.47525671583251</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[54.31276378807972, 85.27082036804508]</t>
+          <t>[51.38133340011386, 87.56918003155117]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>9.734879569123223e-12</v>
+        <v>8.442140320141789e-10</v>
       </c>
       <c r="W16" t="n">
-        <v>9.734879569123223e-12</v>
+        <v>8.442140320141789e-10</v>
       </c>
       <c r="X16" t="n">
-        <v>3.644524524524602</v>
+        <v>4.06806806806815</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.745265265265304</v>
+        <v>1.271271271271296</v>
       </c>
       <c r="Z16" t="n">
-        <v>5.543783783783899</v>
+        <v>6.864864864865005</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>25.64000000000057</v>
+        <v>25.40000000000053</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.002900426549546697</v>
+        <v>1.875437336751329e-05</v>
       </c>
       <c r="I17" t="n">
-        <v>0.002900426549546697</v>
+        <v>1.875437336751329e-05</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>40.09857421644486</v>
+        <v>59.0858619020409</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[12.226431485953114, 67.9707169469366]</t>
+          <t>[33.65256195442504, 84.51916184965675]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.005789773928636555</v>
+        <v>2.655801932949231e-05</v>
       </c>
       <c r="O17" t="n">
-        <v>0.005789773928636555</v>
+        <v>2.655801932949231e-05</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.396263401595464</v>
+        <v>-1.509473947670771</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-2.3271056693257726, -0.46542113386515505]</t>
+          <t>[-2.07552667804731, -0.9434212172942322]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.004142907235937354</v>
+        <v>2.650989207486631e-06</v>
       </c>
       <c r="S17" t="n">
-        <v>0.004142907235937354</v>
+        <v>2.650989207486631e-06</v>
       </c>
       <c r="T17" t="n">
-        <v>68.1565338798263</v>
+        <v>59.84901033463142</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[51.95265526467816, 84.36041249497444]</t>
+          <t>[43.47558049915287, 76.22244017010996]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>7.167311188993608e-11</v>
+        <v>2.968848056283946e-09</v>
       </c>
       <c r="W17" t="n">
-        <v>7.167311188993608e-11</v>
+        <v>2.968848056283946e-09</v>
       </c>
       <c r="X17" t="n">
-        <v>5.697777777777905</v>
+        <v>6.102102102102229</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.899259259259303</v>
+        <v>3.813813813813895</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.496296296296507</v>
+        <v>8.390390390390564</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_5_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_5_square_0.1_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.38000000000037</v>
+        <v>24.32000000000036</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>7.254619304841725e-06</v>
+        <v>0.05645623206650108</v>
       </c>
       <c r="I2" t="n">
-        <v>7.254619304841725e-06</v>
+        <v>0.05645623206650108</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>62.48732254290727</v>
+        <v>31.08818870525425</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[36.01063153784034, 88.9640135479742]</t>
+          <t>[-3.5264868841273227, 65.70286429463582]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.080584869568192e-05</v>
+        <v>0.07714889555433402</v>
       </c>
       <c r="O2" t="n">
-        <v>2.080584869568192e-05</v>
+        <v>0.07714889555433402</v>
       </c>
       <c r="P2" t="n">
-        <v>1.654131867655886</v>
+        <v>1.125815985971117</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.1383949355350387, 2.169868799776734]</t>
+          <t>[-0.6100790538502698, 2.8617110257925047]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>6.468368662915225e-08</v>
+        <v>0.1981057080728732</v>
       </c>
       <c r="S2" t="n">
-        <v>6.468368662915225e-08</v>
+        <v>0.1981057080728732</v>
       </c>
       <c r="T2" t="n">
-        <v>81.1400125460621</v>
+        <v>69.07078859349809</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[65.07057309192803, 97.20945200019617]</t>
+          <t>[51.14852632273928, 86.9930508642569]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.059774655866931e-13</v>
+        <v>7.665741375006974e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>3.059774655866931e-13</v>
+        <v>7.665741375006974e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>17.96164164164192</v>
+        <v>19.96236236236266</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.96048048048072</v>
+        <v>13.24332332332352</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.96280280280311</v>
+        <v>26.6814014014018</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.38000000000037</v>
+        <v>24.32000000000036</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05031659429675106</v>
+        <v>0.0007125080295110608</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05031659429675106</v>
+        <v>0.0007125080295110608</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>28.59408185510627</v>
+        <v>52.53356204437315</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.5246685964268565, 58.71283230663939]</t>
+          <t>[21.25452057056735, 83.81260351817895]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.06223643482290409</v>
+        <v>0.001494904334102376</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06223643482290409</v>
+        <v>0.001494904334102376</v>
       </c>
       <c r="P3" t="n">
-        <v>1.817658211986886</v>
+        <v>1.465447624197041</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.3836579616996545, 3.2516584622741185]</t>
+          <t>[0.7232895999255788, 2.207605648468503]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.01414240296605551</v>
+        <v>0.0002505552939515709</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01414240296605551</v>
+        <v>0.0002505552939515709</v>
       </c>
       <c r="T3" t="n">
-        <v>60.02228215241456</v>
+        <v>57.27302226509416</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[43.81433231625237, 76.23023198857675]</t>
+          <t>[39.089894812971735, 75.45614971721658]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.138252686023634e-09</v>
+        <v>9.619875918076559e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>2.138252686023634e-09</v>
+        <v>9.619875918076559e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>17.32712712712739</v>
+        <v>18.64776776776804</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.76292292292311</v>
+        <v>15.77513513513537</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.89133133133168</v>
+        <v>21.52040040040072</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.38000000000037</v>
+        <v>24.32000000000036</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08414785568095096</v>
+        <v>0.0003658750515195264</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08414785568095096</v>
+        <v>0.0003658750515195264</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>29.26253160477975</v>
+        <v>50.11638791398521</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-3.895574737082775, 62.42063794664228]</t>
+          <t>[23.423876116608128, 76.8088997113623]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.08224850435241726</v>
+        <v>0.0004569125056512746</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08224850435241726</v>
+        <v>0.0004569125056512746</v>
       </c>
       <c r="P4" t="n">
-        <v>1.150973885098963</v>
+        <v>1.641552918091964</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-0.6981317007977337, 3.000079470995659]</t>
+          <t>[0.9622896416401163, 2.320816194543812]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.216433801759232</v>
+        <v>1.428540648928944e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>0.216433801759232</v>
+        <v>1.428540648928944e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>79.1714577717544</v>
+        <v>65.14913075602854</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[60.87955450474203, 97.46336103876678]</t>
+          <t>[48.66013756328916, 81.63812394876791]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.188893593630837e-11</v>
+        <v>3.970159756505609e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>3.188893593630837e-11</v>
+        <v>3.970159756505609e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>19.9139939939943</v>
+        <v>17.96612612612639</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.73909909909929</v>
+        <v>15.33693693693716</v>
       </c>
       <c r="Z4" t="n">
-        <v>27.08888888888931</v>
+        <v>20.59531531531562</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.38000000000037</v>
+        <v>24.32000000000036</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01549585911680429</v>
+        <v>3.907528724145237e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01549585911680429</v>
+        <v>3.907528724145237e-06</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>34.97073242771287</v>
+        <v>51.93167564777305</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[3.5146739491241874, 66.42679090630156]</t>
+          <t>[28.567705858658513, 75.29564543688758]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.03013529584651664</v>
+        <v>5.131279554015933e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03013529584651664</v>
+        <v>5.131279554015933e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6855527512338089</v>
+        <v>1.113237036407194</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.13836844520315417, 1.509473947670772]</t>
+          <t>[0.6226580034141929, 1.603816069400196]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.1007018788451084</v>
+        <v>3.78658427933054e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1007018788451084</v>
+        <v>3.78658427933054e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>70.52818163241425</v>
+        <v>59.67997384486071</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[54.13937875123393, 86.91698451359457]</t>
+          <t>[46.83566541918294, 72.52428227053849]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.757150146554977e-11</v>
+        <v>3.980371587886111e-12</v>
       </c>
       <c r="W5" t="n">
-        <v>3.757150146554977e-11</v>
+        <v>3.980371587886111e-12</v>
       </c>
       <c r="X5" t="n">
-        <v>21.71991991992025</v>
+        <v>20.01105105105135</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.52294294294322</v>
+        <v>18.11219219219246</v>
       </c>
       <c r="Z5" t="n">
-        <v>24.91689689689728</v>
+        <v>21.90990990991024</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.38000000000037</v>
+        <v>24.32000000000036</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01571506084413621</v>
+        <v>0.0006691509175207333</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01571506084413621</v>
+        <v>0.0006691509175207333</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>35.70484197053132</v>
+        <v>46.48322770537528</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[5.948188565067852, 65.46149537599479]</t>
+          <t>[20.970215815435125, 71.99623959531544]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.01977863585759776</v>
+        <v>0.0006410650127519624</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01977863585759776</v>
+        <v>0.0006410650127519624</v>
       </c>
       <c r="P6" t="n">
-        <v>1.327079178993887</v>
+        <v>1.528342372016657</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.15723686954903915, 2.4969214884387343]</t>
+          <t>[0.798763297309117, 2.257921446724197]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.02709002042181075</v>
+        <v>0.0001171360212433026</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02709002042181075</v>
+        <v>0.0001171360212433026</v>
       </c>
       <c r="T6" t="n">
-        <v>59.92761222028641</v>
+        <v>60.88284485370396</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[43.00233849374986, 76.85288594682295]</t>
+          <t>[44.85911621632134, 76.90657349108659]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>6.509114802710769e-09</v>
+        <v>1.109197844684218e-09</v>
       </c>
       <c r="W6" t="n">
-        <v>6.509114802710769e-09</v>
+        <v>1.109197844684218e-09</v>
       </c>
       <c r="X6" t="n">
-        <v>19.23067067067096</v>
+        <v>18.40432432432459</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.69145145145168</v>
+        <v>15.58038038038061</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.76988988989025</v>
+        <v>21.22826826826858</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.38000000000037</v>
+        <v>24.32000000000036</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02291512544609031</v>
+        <v>0.007978528876041446</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02291512544609031</v>
+        <v>0.007978528876041446</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>34.67251519983571</v>
+        <v>39.90260309054582</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[2.761987833188158, 66.58304256648327]</t>
+          <t>[8.005715343254707, 71.79949083783694]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.03386955803572866</v>
+        <v>0.01536712449786748</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03386955803572866</v>
+        <v>0.01536712449786748</v>
       </c>
       <c r="P7" t="n">
-        <v>1.226447582482502</v>
+        <v>1.050342288587578</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.05660527303765406, 2.5095004380026573]</t>
+          <t>[0.2201316173686534, 1.8805529598065034]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.06053288942992796</v>
+        <v>0.01431368916987763</v>
       </c>
       <c r="S7" t="n">
-        <v>0.06053288942992796</v>
+        <v>0.01431368916987763</v>
       </c>
       <c r="T7" t="n">
-        <v>74.86916815124047</v>
+        <v>73.99953146603701</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[57.566973822769214, 92.17136247971173]</t>
+          <t>[56.65694809508592, 91.3421148369881]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.211653165635653e-11</v>
+        <v>4.785927210093632e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>3.211653165635653e-11</v>
+        <v>4.785927210093632e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>19.62114114114144</v>
+        <v>20.2544944944948</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.64264264264287</v>
+        <v>17.04104104104129</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.59963963964002</v>
+        <v>23.4679479479483</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.38000000000037</v>
+        <v>24.32000000000036</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0003982490472733691</v>
+        <v>4.148310981766379e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0003982490472733691</v>
+        <v>4.148310981766379e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>45.00585557383052</v>
+        <v>53.74759039430134</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[16.320177242010274, 73.69153390565076]</t>
+          <t>[25.18224344729161, 82.31293734131107]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.002820065462665555</v>
+        <v>0.0004457846293342005</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002820065462665555</v>
+        <v>0.0004457846293342005</v>
       </c>
       <c r="P8" t="n">
-        <v>1.025184389459732</v>
+        <v>1.188710733790733</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.3836579616996545, 1.6667108172198102]</t>
+          <t>[0.6100790538502707, 1.7673424137311944]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.002391073876872651</v>
+        <v>0.0001515788562687082</v>
       </c>
       <c r="S8" t="n">
-        <v>0.002391073876872651</v>
+        <v>0.0001515788562687082</v>
       </c>
       <c r="T8" t="n">
-        <v>69.62117497891998</v>
+        <v>64.14909922919063</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[54.784558948615484, 84.45779100922448]</t>
+          <t>[48.92708189999797, 79.37111655838328]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.955635736157092e-12</v>
+        <v>6.79343248322084e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>2.955635736157092e-12</v>
+        <v>6.79343248322084e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>20.40208208208239</v>
+        <v>19.71891891891921</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.91283283283311</v>
+        <v>17.4792392392395</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.89133133133168</v>
+        <v>21.95859859859893</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.38000000000037</v>
+        <v>24.32000000000036</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009933875576764173</v>
+        <v>0.152624634415686</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0009933875576764173</v>
+        <v>0.152624634415686</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>37.2654842156353</v>
+        <v>26.71483935072273</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[13.149246059640461, 61.38172237163013]</t>
+          <t>[-9.675430249026931, 63.1051089504724]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.003221736538184583</v>
+        <v>0.1462149738191014</v>
       </c>
       <c r="O9" t="n">
-        <v>0.003221736538184583</v>
+        <v>0.1462149738191014</v>
       </c>
       <c r="P9" t="n">
-        <v>1.188710733790733</v>
+        <v>0.5471843060306547</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.4968685077749626, 1.8805529598065025]</t>
+          <t>[-2.522079387566581, 3.61644799962789]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.001191599870456805</v>
+        <v>0.7212208278312611</v>
       </c>
       <c r="S9" t="n">
-        <v>0.001191599870456805</v>
+        <v>0.7212208278312611</v>
       </c>
       <c r="T9" t="n">
-        <v>48.46507639952312</v>
+        <v>62.11328097812532</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[35.21570591391441, 61.71444688513183]</t>
+          <t>[43.00224793245634, 81.2243140237943]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.915240271406105e-09</v>
+        <v>4.814212850590138e-08</v>
       </c>
       <c r="W9" t="n">
-        <v>2.915240271406105e-09</v>
+        <v>4.814212850590138e-08</v>
       </c>
       <c r="X9" t="n">
-        <v>19.76756756756787</v>
+        <v>22.20204204204237</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.08308308308334</v>
+        <v>10.32200200200215</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.45205205205239</v>
+        <v>34.08208208208259</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.38000000000037</v>
+        <v>24.32000000000036</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.470621480465951e-05</v>
+        <v>2.856338346457488e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>2.470621480465951e-05</v>
+        <v>2.856338346457488e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>59.42408679915083</v>
+        <v>49.85895932761277</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[27.75886656312872, 91.08930703517294]</t>
+          <t>[23.443701507604125, 76.27421714762141]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0004594648103493082</v>
+        <v>0.0004298244348719393</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0004594648103493082</v>
+        <v>0.0004298244348719393</v>
       </c>
       <c r="P10" t="n">
-        <v>0.761026448617347</v>
+        <v>0.81134224687304</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.2830263651882694, 1.2390265320464247]</t>
+          <t>[0.3333421634439624, 1.2893423303021176]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.002473180316380885</v>
+        <v>0.001346693234940632</v>
       </c>
       <c r="S10" t="n">
-        <v>0.002473180316380885</v>
+        <v>0.001346693234940632</v>
       </c>
       <c r="T10" t="n">
-        <v>69.1046154404614</v>
+        <v>67.29710734692938</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[52.89950202604841, 85.3097288548744]</t>
+          <t>[53.57943497849392, 81.01477971536484]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>4.867772851468999e-11</v>
+        <v>7.558398351648066e-13</v>
       </c>
       <c r="W10" t="n">
-        <v>4.867772851468999e-11</v>
+        <v>7.558398351648066e-13</v>
       </c>
       <c r="X10" t="n">
-        <v>21.42706706706739</v>
+        <v>21.17957957957989</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.57233233233263</v>
+        <v>19.3294094094097</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.28180180180216</v>
+        <v>23.02974974975009</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.40000000000053</v>
+        <v>25.47000000000054</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0005602004479130507</v>
+        <v>8.698818700692001e-06</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0005602004479130507</v>
+        <v>8.698818700692001e-06</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>50.32152062967008</v>
+        <v>53.75856885610418</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[17.487428582199342, 83.15561267714081]</t>
+          <t>[27.744750037277697, 79.77238767493066]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.003457639622547637</v>
+        <v>0.0001402830017445122</v>
       </c>
       <c r="O11" t="n">
-        <v>0.003457639622547637</v>
+        <v>0.0001402830017445122</v>
       </c>
       <c r="P11" t="n">
-        <v>0.798763297309117</v>
+        <v>0.6100790538502707</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.22013161736865516, 1.3773949772495788]</t>
+          <t>[0.11950002085727007, 1.1006580868432714]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.007900191760308539</v>
+        <v>0.01594491078159677</v>
       </c>
       <c r="S11" t="n">
-        <v>0.007900191760308539</v>
+        <v>0.01594491078159677</v>
       </c>
       <c r="T11" t="n">
-        <v>58.48806527405323</v>
+        <v>57.50328534282045</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[41.679086527948954, 75.29704402015751]</t>
+          <t>[43.9779008216468, 71.0286698639941]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>9.907907161377238e-09</v>
+        <v>5.301803440715958e-11</v>
       </c>
       <c r="W11" t="n">
-        <v>9.907907161377238e-09</v>
+        <v>5.301803440715958e-11</v>
       </c>
       <c r="X11" t="n">
-        <v>22.17097097097143</v>
+        <v>22.99693693693742</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.83183183183225</v>
+        <v>21.00828828828873</v>
       </c>
       <c r="Z11" t="n">
-        <v>24.51011011011062</v>
+        <v>24.98558558558612</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.40000000000053</v>
+        <v>25.47000000000054</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001824923236732889</v>
+        <v>0.0001708028980121901</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001824923236732889</v>
+        <v>0.0001708028980121901</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>53.19806663187404</v>
+        <v>49.96003457418522</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[20.942898228439645, 85.45323503530844]</t>
+          <t>[21.17347120392141, 78.74659794444902]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.001781779422746155</v>
+        <v>0.001075483670012645</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001781779422746155</v>
+        <v>0.001075483670012645</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1698158191129622</v>
+        <v>0.4339737599553466</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.6100790538502698, 0.9497106920761942]</t>
+          <t>[-0.1823947686768852, 1.0503422885875784]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.663082521949752</v>
+        <v>0.1630517832017215</v>
       </c>
       <c r="S12" t="n">
-        <v>0.663082521949752</v>
+        <v>0.1630517832017215</v>
       </c>
       <c r="T12" t="n">
-        <v>71.14593939143631</v>
+        <v>58.59297609492905</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[51.88283456760693, 90.40904421526571]</t>
+          <t>[43.568832013024135, 73.61712017683396]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.287597222760951e-09</v>
+        <v>5.61136692667219e-10</v>
       </c>
       <c r="W12" t="n">
-        <v>2.287597222760951e-09</v>
+        <v>5.61136692667219e-10</v>
       </c>
       <c r="X12" t="n">
-        <v>24.71351351351403</v>
+        <v>23.71081081081132</v>
       </c>
       <c r="Y12" t="n">
-        <v>21.56076076076121</v>
+        <v>21.2122522522527</v>
       </c>
       <c r="Z12" t="n">
-        <v>27.86626626626685</v>
+        <v>26.20936936936993</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.40000000000053</v>
+        <v>25.47000000000054</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.096627631731351e-06</v>
+        <v>0.0006807712956045098</v>
       </c>
       <c r="I13" t="n">
-        <v>2.096627631731351e-06</v>
+        <v>0.0006807712956045098</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>63.13497151216747</v>
+        <v>50.30189909981112</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[38.081245712227044, 88.18869731210789]</t>
+          <t>[18.588637262165946, 82.0151609374563]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>7.151166895535965e-06</v>
+        <v>0.002558298307669737</v>
       </c>
       <c r="O13" t="n">
-        <v>7.151166895535965e-06</v>
+        <v>0.002558298307669737</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2956053147521933</v>
+        <v>0.5346053564667317</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.16981581911296129, 0.7610264486173479]</t>
+          <t>[-0.11950002085726918, 1.1887107337907326]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.2073739217523789</v>
+        <v>0.1067020331958413</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2073739217523789</v>
+        <v>0.1067020331958413</v>
       </c>
       <c r="T13" t="n">
-        <v>64.11872562228882</v>
+        <v>62.84839071778333</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[49.459623074511654, 78.77782817006599]</t>
+          <t>[46.038345423877935, 79.65843601168874]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.357514183870535e-11</v>
+        <v>1.678399863536129e-09</v>
       </c>
       <c r="W13" t="n">
-        <v>2.357514183870535e-11</v>
+        <v>1.678399863536129e-09</v>
       </c>
       <c r="X13" t="n">
-        <v>24.20500500500551</v>
+        <v>23.30288288288338</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.32352352352399</v>
+        <v>20.65135135135179</v>
       </c>
       <c r="Z13" t="n">
-        <v>26.08648648648703</v>
+        <v>25.95441441441497</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.40000000000053</v>
+        <v>25.47000000000054</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.008150523710598212</v>
+        <v>1.355702305860795e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>0.008150523710598212</v>
+        <v>1.355702305860795e-05</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>37.45984201700403</v>
+        <v>62.7285513657673</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[10.788911537016475, 64.13077249699158]</t>
+          <t>[36.27082043023276, 89.18628230130184]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.006952959087939803</v>
+        <v>1.936714582928545e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>0.006952959087939803</v>
+        <v>1.936714582928545e-05</v>
       </c>
       <c r="P14" t="n">
-        <v>0.05660527303765406</v>
+        <v>0.08176317216550011</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.8931054190385392, 1.0063159651138474]</t>
+          <t>[-0.3962369112635775, 0.5597632555945777]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.9049811655566951</v>
+        <v>0.7320619372787296</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9049811655566951</v>
+        <v>0.7320619372787296</v>
       </c>
       <c r="T14" t="n">
-        <v>55.70450837327778</v>
+        <v>84.27244481918224</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[39.85978858246037, 71.54922816409518]</t>
+          <t>[68.18487656411816, 100.36001307424633]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>7.731923101772509e-09</v>
+        <v>9.459100169806334e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>7.731923101772509e-09</v>
+        <v>9.459100169806334e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>25.1711711711717</v>
+        <v>25.13855855855909</v>
       </c>
       <c r="Y14" t="n">
-        <v>21.33193193193238</v>
+        <v>23.2009009009014</v>
       </c>
       <c r="Z14" t="n">
-        <v>29.01041041041102</v>
+        <v>27.07621621621679</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>25.40000000000053</v>
+        <v>25.47000000000054</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>5.954874530744725e-05</v>
+        <v>0.07427823389534971</v>
       </c>
       <c r="I15" t="n">
-        <v>5.954874530744725e-05</v>
+        <v>0.07427823389534971</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>61.17966698853333</v>
+        <v>26.31164604426072</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[31.483760148402922, 90.87557382866375]</t>
+          <t>[-4.605998312842907, 57.22929040136435]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.0001460452009212077</v>
+        <v>0.09340083644858965</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0001460452009212077</v>
+        <v>0.09340083644858965</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.2515789912784623</v>
+        <v>-0.8050527720910781</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.855368570346771, 0.3522105877898465]</t>
+          <t>[-3.930921738725967, 2.320816194543811]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.4057878611303565</v>
+        <v>0.6064956907602514</v>
       </c>
       <c r="S15" t="n">
-        <v>0.4057878611303565</v>
+        <v>0.6064956907602514</v>
       </c>
       <c r="T15" t="n">
-        <v>68.61224533655879</v>
+        <v>68.24513926942068</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[51.227260104161104, 85.99723056895647]</t>
+          <t>[52.00929833706107, 84.48098020178028]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>4.090787708577182e-10</v>
+        <v>7.303380122891667e-11</v>
       </c>
       <c r="W15" t="n">
-        <v>4.090787708577182e-10</v>
+        <v>7.303380122891667e-11</v>
       </c>
       <c r="X15" t="n">
-        <v>1.017017017017043</v>
+        <v>3.263423423423493</v>
       </c>
       <c r="Y15" t="n">
-        <v>-1.42382382382385</v>
+        <v>-9.407837837838038</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.457857857857936</v>
+        <v>15.93468468468502</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>25.40000000000053</v>
+        <v>25.47000000000054</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00155736335829848</v>
+        <v>0.008743220125290274</v>
       </c>
       <c r="I16" t="n">
-        <v>0.00155736335829848</v>
+        <v>0.008743220125290274</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>47.95053665784654</v>
+        <v>41.63915958516331</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[13.802103329122332, 82.09896998657075]</t>
+          <t>[6.711241653806468, 76.56707751652016]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.006965557145631962</v>
+        <v>0.02053954564600757</v>
       </c>
       <c r="O16" t="n">
-        <v>0.006965557145631962</v>
+        <v>0.02053954564600757</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.006315965113847</v>
+        <v>-1.182421259008771</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-1.6981581911296173, -0.3144737390980774]</t>
+          <t>[-2.226474072814388, -0.13836844520315505]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.005312837190214914</v>
+        <v>0.02733144580250579</v>
       </c>
       <c r="S16" t="n">
-        <v>0.005312837190214914</v>
+        <v>0.02733144580250579</v>
       </c>
       <c r="T16" t="n">
-        <v>69.47525671583251</v>
+        <v>70.85772419583944</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[51.38133340011386, 87.56918003155117]</t>
+          <t>[52.017426251517605, 89.69802214016127]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>8.442140320141789e-10</v>
+        <v>1.442405528351287e-09</v>
       </c>
       <c r="W16" t="n">
-        <v>8.442140320141789e-10</v>
+        <v>1.442405528351287e-09</v>
       </c>
       <c r="X16" t="n">
-        <v>4.06806806806815</v>
+        <v>4.793153153153256</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.271271271271296</v>
+        <v>0.5609009009009149</v>
       </c>
       <c r="Z16" t="n">
-        <v>6.864864864865005</v>
+        <v>9.025405405405596</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>25.40000000000053</v>
+        <v>25.47000000000054</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1.875437336751329e-05</v>
+        <v>0.001175370527446318</v>
       </c>
       <c r="I17" t="n">
-        <v>1.875437336751329e-05</v>
+        <v>0.001175370527446318</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>59.0858619020409</v>
+        <v>45.34551041324611</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[33.65256195442504, 84.51916184965675]</t>
+          <t>[18.347372964084357, 72.34364786240786]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.655801932949231e-05</v>
+        <v>0.001494328549950241</v>
       </c>
       <c r="O17" t="n">
-        <v>2.655801932949231e-05</v>
+        <v>0.001494328549950241</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.509473947670771</v>
+        <v>-1.459158149415079</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-2.07552667804731, -0.9434212172942322]</t>
+          <t>[-2.239053022378311, -0.6792632764518469]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.650989207486631e-06</v>
+        <v>0.0004756922200108704</v>
       </c>
       <c r="S17" t="n">
-        <v>2.650989207486631e-06</v>
+        <v>0.0004756922200108704</v>
       </c>
       <c r="T17" t="n">
-        <v>59.84901033463142</v>
+        <v>58.76668496929123</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[43.47558049915287, 76.22244017010996]</t>
+          <t>[41.95577672773861, 75.57759321084384]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>2.968848056283946e-09</v>
+        <v>8.865223888321339e-09</v>
       </c>
       <c r="W17" t="n">
-        <v>2.968848056283946e-09</v>
+        <v>8.865223888321339e-09</v>
       </c>
       <c r="X17" t="n">
-        <v>6.102102102102229</v>
+        <v>5.914954954955078</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.813813813813895</v>
+        <v>2.753513513513569</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.390390390390564</v>
+        <v>9.076396396396587</v>
       </c>
     </row>
   </sheetData>
